--- a/DCF Models/PTSI.xlsx
+++ b/DCF Models/PTSI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\DCF Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1412F53-7EB2-4EFE-9FA9-1B92866A1F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCE8EFF-4C45-45E2-BC0C-1BAC62712F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28935" yWindow="0" windowWidth="22575" windowHeight="21600" xr2:uid="{3056AFBF-C33C-44A0-B793-E31A92920761}"/>
+    <workbookView xWindow="28935" yWindow="4890" windowWidth="22575" windowHeight="15045" xr2:uid="{3056AFBF-C33C-44A0-B793-E31A92920761}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -242,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -251,8 +251,6 @@
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,7 +673,7 @@
   <dimension ref="C2:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,10 +798,10 @@
   <dimension ref="A1:DQ104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD24" sqref="AD24"/>
+      <selection pane="bottomRight" activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1313,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C7:J7" si="0">+C3-C6</f>
+        <f t="shared" ref="C7:I7" si="0">+C3-C6</f>
         <v>0</v>
       </c>
       <c r="D7" s="3">
@@ -1420,113 +1418,113 @@
       </c>
     </row>
     <row r="8" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="3">
         <v>135.1</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="3">
         <v>145.19999999999999</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="3">
         <v>166.3</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="3">
         <f>+S9-E9-D9-C9</f>
         <v>194.65300000000005</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="3">
         <v>196.1</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="3">
         <v>202.74</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="3">
         <v>216.5</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="3">
         <f>+T9-I9-H9-G9</f>
         <v>203.45999999999995</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="3">
         <v>355.4</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="3">
         <v>382.7</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="3">
         <v>373.5</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="3">
         <v>445.85500000000002</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="3">
         <v>439.5</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="3">
         <v>439</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="3">
         <v>641.25300000000004</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="3">
         <v>818.8</v>
       </c>
     </row>
-    <row r="10" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="3">
         <v>13.7</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="3">
         <v>16.8</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="3">
         <f>+S10-E10-D10-C10</f>
         <v>19.270000000000007</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="3">
         <v>23.4</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="3">
         <v>34.4</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="3">
         <v>36.15</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="3">
         <f>+T10-I10-H10-G10</f>
         <v>34.149999999999991</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="3">
         <v>61.65</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="3">
         <v>50.1</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="3">
         <v>64.3</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="3">
         <v>87.4</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="3">
         <v>74.7</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="3">
         <v>47.8</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="3">
         <v>65.87</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="3">
         <v>128.1</v>
       </c>
     </row>
@@ -1639,667 +1637,667 @@
         <v>2703.6479521691845</v>
       </c>
     </row>
-    <row r="12" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="3">
         <v>33.4</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="3">
         <v>33.799999999999997</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="3">
         <v>34.9</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="3">
         <f t="shared" ref="F12:F18" si="6">+S12-E12-D12-C12</f>
         <v>38.9</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="3">
         <v>39.299999999999997</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="3">
         <v>42.95</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="3">
         <v>50.9</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="3">
         <f t="shared" ref="J12:J18" si="7">+T12-I12-H12-G12</f>
         <v>48.75</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="3">
         <v>105.94</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="3">
         <v>112.2</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="3">
         <v>102.2</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="3">
         <v>119.8</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="3">
         <v>129.69999999999999</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="3">
         <v>124.1</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="3">
         <v>141</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="3">
         <v>181.9</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="3">
         <f>+U$11*U38</f>
         <v>223.46839999999997</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="3">
         <f t="shared" ref="V12:AD12" si="8">+V$11*V38</f>
         <v>269.8380929999999</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="3">
         <f t="shared" si="8"/>
         <v>316.61002911999998</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="3">
         <f t="shared" si="8"/>
         <v>367.41154742879996</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Y12" s="3">
         <f t="shared" si="8"/>
         <v>421.72455878784001</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="Z12" s="3">
         <f t="shared" si="8"/>
         <v>459.67976907874566</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AA12" s="3">
         <f t="shared" si="8"/>
         <v>501.05094829583282</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AB12" s="3">
         <f t="shared" si="8"/>
         <v>546.14553364245785</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AC12" s="3">
         <f t="shared" si="8"/>
         <v>595.29863167027906</v>
       </c>
-      <c r="AD12" s="8">
+      <c r="AD12" s="3">
         <f t="shared" si="8"/>
         <v>648.87550852060428</v>
       </c>
     </row>
-    <row r="13" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="3">
         <v>23.5</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="3">
         <v>25.1</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="3">
         <v>25.7</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="3">
         <f t="shared" si="6"/>
         <v>27.9</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="3">
         <v>31.6</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="3">
         <v>43.5</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="3">
         <v>48.1</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="3">
         <f t="shared" si="7"/>
         <v>42.800000000000004</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="3">
         <v>89.9</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="3">
         <v>82.99</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="3">
         <v>79.5</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="3">
         <v>93.1</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="3">
         <v>98.4</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="3">
         <v>84.3</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="3">
         <v>102.2</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="3">
         <v>166</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="3">
         <f t="shared" ref="U13:AD13" si="9">+U$11*U39</f>
         <v>201.12155999999996</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V13" s="3">
         <f t="shared" si="9"/>
         <v>237.71451049999993</v>
       </c>
-      <c r="W13" s="8">
+      <c r="W13" s="3">
         <f t="shared" si="9"/>
         <v>273.43593423999999</v>
       </c>
-      <c r="X13" s="8">
+      <c r="X13" s="3">
         <f t="shared" si="9"/>
         <v>303.51388700639995</v>
       </c>
-      <c r="Y13" s="8">
+      <c r="Y13" s="3">
         <f t="shared" si="9"/>
         <v>333.86527570704004</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="Z13" s="3">
         <f t="shared" si="9"/>
         <v>373.48981237648087</v>
       </c>
-      <c r="AA13" s="8">
+      <c r="AA13" s="3">
         <f t="shared" si="9"/>
         <v>407.10389549036421</v>
       </c>
-      <c r="AB13" s="8">
+      <c r="AB13" s="3">
         <f t="shared" si="9"/>
         <v>443.743246084497</v>
       </c>
-      <c r="AC13" s="8">
+      <c r="AC13" s="3">
         <f t="shared" si="9"/>
         <v>483.6801382321018</v>
       </c>
-      <c r="AD13" s="8">
+      <c r="AD13" s="3">
         <f t="shared" si="9"/>
         <v>527.21135067299099</v>
       </c>
     </row>
-    <row r="14" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="3">
         <v>58</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="3">
         <v>61.7</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="3">
         <v>72.7</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="3">
         <f t="shared" si="6"/>
         <v>86.600000000000023</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="3">
         <v>91.4</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="3">
         <v>88.6</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="3">
         <v>93.5</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="3">
         <f t="shared" si="7"/>
         <v>91.470000000000027</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="3">
         <v>134.19999999999999</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="3">
         <v>158.30000000000001</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="3">
         <v>174.5</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="3">
         <v>201.5</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="3">
         <v>168.4</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="3">
         <v>165.98</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="3">
         <v>279</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="3">
         <v>364.97</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U14" s="3">
         <f t="shared" ref="U14:AD14" si="10">+U$11*U40</f>
         <v>424.58995999999996</v>
       </c>
-      <c r="V14" s="8">
+      <c r="V14" s="3">
         <f t="shared" si="10"/>
         <v>488.2784539999999</v>
       </c>
-      <c r="W14" s="8">
+      <c r="W14" s="3">
         <f t="shared" si="10"/>
         <v>546.87186847999999</v>
       </c>
-      <c r="X14" s="8">
+      <c r="X14" s="3">
         <f t="shared" si="10"/>
         <v>623.0021891184</v>
       </c>
-      <c r="Y14" s="8">
+      <c r="Y14" s="3">
         <f t="shared" si="10"/>
         <v>685.30240803024003</v>
       </c>
-      <c r="Z14" s="8">
+      <c r="Z14" s="3">
         <f t="shared" si="10"/>
         <v>746.97962475296174</v>
       </c>
-      <c r="AA14" s="8">
+      <c r="AA14" s="3">
         <f t="shared" si="10"/>
         <v>835.08491382638806</v>
       </c>
-      <c r="AB14" s="8">
+      <c r="AB14" s="3">
         <f t="shared" si="10"/>
         <v>910.24255607076304</v>
       </c>
-      <c r="AC14" s="8">
+      <c r="AC14" s="3">
         <f t="shared" si="10"/>
         <v>992.16438611713193</v>
       </c>
-      <c r="AD14" s="8">
+      <c r="AD14" s="3">
         <f t="shared" si="10"/>
         <v>1081.4591808676739</v>
       </c>
     </row>
-    <row r="15" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="3">
         <v>14.4</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="3">
         <v>14.3</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="3">
         <v>12.7</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="3">
         <f t="shared" si="6"/>
         <v>13.599999999999996</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="3">
         <v>14.9</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="3">
         <v>15.5</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="3">
         <v>16.3</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="3">
         <f t="shared" si="7"/>
         <v>16.100000000000001</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="3">
         <v>32.35</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="3">
         <v>39.1</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="3">
         <v>42.3</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="3">
         <v>49.4</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="3">
         <v>55.1</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="3">
         <v>56.2</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="3">
         <v>55</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="3">
         <v>62.8</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="3">
         <f t="shared" ref="U15:AD15" si="11">+U$11*U41</f>
         <v>78.213939999999994</v>
       </c>
-      <c r="V15" s="8">
+      <c r="V15" s="3">
         <f t="shared" si="11"/>
         <v>89.946030999999991</v>
       </c>
-      <c r="W15" s="8">
+      <c r="W15" s="3">
         <f t="shared" si="11"/>
         <v>99.300418223999998</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X15" s="3">
         <f t="shared" si="11"/>
         <v>110.22346422864</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="Y15" s="3">
         <f t="shared" si="11"/>
         <v>119.48862498988801</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="Z15" s="3">
         <f t="shared" si="11"/>
         <v>130.24260123897795</v>
       </c>
-      <c r="AA15" s="8">
+      <c r="AA15" s="3">
         <f t="shared" si="11"/>
         <v>139.87672306592</v>
       </c>
-      <c r="AB15" s="8">
+      <c r="AB15" s="3">
         <f t="shared" si="11"/>
         <v>152.46562814185282</v>
       </c>
-      <c r="AC15" s="8">
+      <c r="AC15" s="3">
         <f t="shared" si="11"/>
         <v>163.70712370932677</v>
       </c>
-      <c r="AD15" s="8">
+      <c r="AD15" s="3">
         <f t="shared" si="11"/>
         <v>178.44076484316619</v>
       </c>
     </row>
-    <row r="16" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="3">
         <v>3.2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="3">
         <v>3.1</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="3">
         <v>3.4</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="3">
         <f t="shared" si="6"/>
         <v>9.1000000000000014</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="3">
         <v>6.9</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="3">
         <v>7.3</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="3">
         <v>5.15</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="3">
         <f t="shared" si="7"/>
         <v>13.15</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="3">
         <v>15.3</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="3">
         <v>17.5</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="3">
         <v>17.2</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="3">
         <v>35.6</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="3">
         <v>8.9</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="3">
         <v>18.8</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="3">
         <v>32.5</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="3">
         <f t="shared" ref="U16:AD16" si="12">+U$11*U42</f>
         <v>44.693679999999993</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="3">
         <f t="shared" si="12"/>
         <v>51.397731999999991</v>
       </c>
-      <c r="W16" s="8">
+      <c r="W16" s="3">
         <f t="shared" si="12"/>
         <v>56.126323343999992</v>
       </c>
-      <c r="X16" s="8">
+      <c r="X16" s="3">
         <f t="shared" si="12"/>
         <v>62.300218911839998</v>
       </c>
-      <c r="Y16" s="8">
+      <c r="Y16" s="3">
         <f t="shared" si="12"/>
         <v>66.773055141407994</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="Z16" s="3">
         <f t="shared" si="12"/>
         <v>72.782630104134725</v>
       </c>
-      <c r="AA16" s="8">
+      <c r="AA16" s="3">
         <f t="shared" si="12"/>
         <v>79.333066813506861</v>
       </c>
-      <c r="AB16" s="8">
+      <c r="AB16" s="3">
         <f t="shared" si="12"/>
         <v>86.473042826722491</v>
       </c>
-      <c r="AC16" s="8">
+      <c r="AC16" s="3">
         <f t="shared" si="12"/>
         <v>94.25561668112752</v>
       </c>
-      <c r="AD16" s="8">
+      <c r="AD16" s="3">
         <f t="shared" si="12"/>
         <v>102.73862218242901</v>
       </c>
     </row>
-    <row r="17" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="3">
         <v>2.7</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="3">
         <v>2.8</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="3">
         <f t="shared" si="6"/>
         <v>3.8000000000000007</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="3">
         <v>4.2</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="3">
         <v>3.9</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="3">
         <f t="shared" si="7"/>
         <v>5.4000000000000012</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="3">
         <v>8.9</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="3">
         <v>8.35</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="3">
         <v>9.25</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="3">
         <v>11.99</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="3">
         <v>13.8</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="3">
         <v>13.1</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="3">
         <v>12.3</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="3">
         <v>18.100000000000001</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="3">
         <f t="shared" ref="U17:AD17" si="13">+U$11*U43</f>
         <v>22.346839999999997</v>
       </c>
-      <c r="V17" s="8">
+      <c r="V17" s="3">
         <f t="shared" si="13"/>
         <v>25.698865999999995</v>
       </c>
-      <c r="W17" s="8">
+      <c r="W17" s="3">
         <f t="shared" si="13"/>
         <v>28.782729919999998</v>
       </c>
-      <c r="X17" s="8">
+      <c r="X17" s="3">
         <f t="shared" si="13"/>
         <v>31.948830211199997</v>
       </c>
-      <c r="Y17" s="8">
+      <c r="Y17" s="3">
         <f t="shared" si="13"/>
         <v>35.143713232320003</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="Z17" s="3">
         <f t="shared" si="13"/>
         <v>38.306647423228803</v>
       </c>
-      <c r="AA17" s="8">
+      <c r="AA17" s="3">
         <f t="shared" si="13"/>
         <v>41.754245691319404</v>
       </c>
-      <c r="AB17" s="8">
+      <c r="AB17" s="3">
         <f t="shared" si="13"/>
         <v>45.512127803538149</v>
       </c>
-      <c r="AC17" s="8">
+      <c r="AC17" s="3">
         <f t="shared" si="13"/>
         <v>49.608219305856593</v>
       </c>
-      <c r="AD17" s="8">
+      <c r="AD17" s="3">
         <f t="shared" si="13"/>
         <v>54.07295904338369</v>
       </c>
     </row>
-    <row r="18" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+    <row r="18" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="3">
         <v>-0.1</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="3">
         <v>-0.6</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="3">
         <v>-0.3</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="3">
         <f t="shared" si="6"/>
         <v>-0.44999999999999996</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="3">
         <v>-0.15</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="3">
         <v>-1.2</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="3">
         <v>-1.3</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="3">
         <f t="shared" si="7"/>
         <v>-0.6</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="3">
         <v>-5.75</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="3">
         <v>-4.7</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="3">
         <v>-0.1</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="3">
         <v>-1.3</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="3">
         <v>0.6</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="3">
         <v>0.4</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="3">
         <v>-1.45</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="3">
         <v>-3.25</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="3">
         <f t="shared" ref="U18:AD18" si="14">+U$11*U44</f>
         <v>0</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V18" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W18" s="8">
+      <c r="W18" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X18" s="8">
+      <c r="X18" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="8">
+      <c r="Y18" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="Z18" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="8">
+      <c r="AA18" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="8">
+      <c r="AB18" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="8">
+      <c r="AC18" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="8">
+      <c r="AD18" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -2413,152 +2411,152 @@
         <v>110.84956603893625</v>
       </c>
     </row>
-    <row r="20" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="3">
         <v>4.7</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="3">
         <v>2.1</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="3">
         <v>0.04</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="3">
         <f t="shared" ref="F20:F21" si="36">+S20-E20-D20-C20</f>
         <v>3.4900000000000011</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="3">
         <v>1.9</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="3">
         <v>-2.9</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="3">
         <v>-1.9</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="3">
         <f t="shared" ref="J20:J21" si="37">+T20-I20-H20-G20</f>
         <v>6.0679999999999996</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="3">
         <v>1.5</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="3">
         <v>1.5</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="3">
         <v>5.85</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="3">
         <v>-4</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="3">
         <v>6.2220000000000004</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="3">
         <v>-1.7</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="3">
         <v>10.33</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="3">
         <v>3.1680000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="3">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="3">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="3">
         <v>-1.9</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="3">
         <f t="shared" si="36"/>
         <v>-1.5999999999999996</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="3">
         <v>-1.7</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="3">
         <v>-2</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="3">
         <v>-1.9</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="3">
         <f t="shared" si="37"/>
         <v>-2.3299999999999992</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="3">
         <v>-2.8</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="3">
         <v>-3.6</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="3">
         <v>-3.9</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="3">
         <v>-6.2</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="3">
         <v>-8.6999999999999993</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="3">
         <v>-8.8000000000000007</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="3">
         <v>-8</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="3">
         <v>-7.93</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U21" s="3">
         <f>+U47*T7</f>
         <v>-10.068165</v>
       </c>
-      <c r="V21" s="8">
+      <c r="V21" s="3">
         <f t="shared" ref="V21:AD21" si="38">+V47*U7</f>
         <v>-6.1411357809999982</v>
       </c>
-      <c r="W21" s="8">
+      <c r="W21" s="3">
         <f t="shared" si="38"/>
         <v>-1.059811701010196</v>
       </c>
-      <c r="X21" s="8">
+      <c r="X21" s="3">
         <f t="shared" si="38"/>
         <v>2.8872299067607075</v>
       </c>
-      <c r="Y21" s="8">
+      <c r="Y21" s="3">
         <f t="shared" si="38"/>
         <v>5.9054989251633039</v>
       </c>
-      <c r="Z21" s="8">
+      <c r="Z21" s="3">
         <f t="shared" si="38"/>
         <v>8.3925786948349828</v>
       </c>
-      <c r="AA21" s="8">
+      <c r="AA21" s="3">
         <f t="shared" si="38"/>
         <v>11.343336635322158</v>
       </c>
-      <c r="AB21" s="8">
+      <c r="AB21" s="3">
         <f t="shared" si="38"/>
         <v>14.043768178993508</v>
       </c>
-      <c r="AC21" s="8">
+      <c r="AC21" s="3">
         <f t="shared" si="38"/>
         <v>17.03505481618291</v>
       </c>
-      <c r="AD21" s="8">
+      <c r="AD21" s="3">
         <f t="shared" si="38"/>
         <v>20.369046691543659</v>
       </c>
@@ -2672,97 +2670,97 @@
         <v>131.21861273047989</v>
       </c>
     </row>
-    <row r="23" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="3">
         <v>4.125</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="3">
         <v>5.63</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="3">
         <v>7.6</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="3">
         <f>+S23-E23-D23-C23</f>
         <v>8.6449999999999996</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="3">
         <v>7.7</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="3">
         <v>7.6</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="3">
         <v>7.12</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="3">
         <f>+T23-I23-H23-G23</f>
         <v>5.9099999999999975</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="3">
         <v>13.5</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="3">
         <v>6.67</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="3">
         <v>-24.27</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="3">
         <v>7.35</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="3">
         <v>5.6</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="3">
         <v>26</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="3">
         <v>28.33</v>
       </c>
-      <c r="U23" s="8">
+      <c r="U23" s="3">
         <f>+U22*U46</f>
         <v>27.081469200000015</v>
       </c>
-      <c r="V23" s="8">
+      <c r="V23" s="3">
         <f t="shared" ref="V23:AD23" si="60">+V22*V46</f>
         <v>27.822834652560012</v>
       </c>
-      <c r="W23" s="8">
+      <c r="W23" s="3">
         <f t="shared" si="60"/>
         <v>29.237345242747434</v>
       </c>
-      <c r="X23" s="8">
+      <c r="X23" s="3">
         <f t="shared" si="60"/>
         <v>25.482150890370182</v>
       </c>
-      <c r="Y23" s="8">
+      <c r="Y23" s="3">
         <f t="shared" si="60"/>
         <v>26.206316409631157</v>
       </c>
-      <c r="Z23" s="8">
+      <c r="Z23" s="3">
         <f t="shared" si="60"/>
         <v>26.58340486925384</v>
       </c>
-      <c r="AA23" s="8">
+      <c r="AA23" s="3">
         <f t="shared" si="60"/>
         <v>25.609993564849461</v>
       </c>
-      <c r="AB23" s="8">
+      <c r="AB23" s="3">
         <f t="shared" si="60"/>
         <v>28.368366422238811</v>
       </c>
-      <c r="AC23" s="8">
+      <c r="AC23" s="3">
         <f t="shared" si="60"/>
         <v>33.244933230092926</v>
       </c>
-      <c r="AD23" s="8">
+      <c r="AD23" s="3">
         <f t="shared" si="60"/>
         <v>36.741211564534375</v>
       </c>
@@ -3240,56 +3238,56 @@
         <v>37.855644697940342</v>
       </c>
     </row>
-    <row r="25" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="3">
         <v>22.9</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="3">
         <v>22.9</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="3">
         <v>22.724</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="3">
         <v>22.713999999999999</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="3">
         <v>22.292000000000002</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="3">
         <v>22.268000000000001</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="3">
         <v>22.263000000000002</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="3">
         <v>22.436</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="3">
         <v>7.2880000000000003</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="3">
         <v>6.6269999999999998</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="3">
         <v>6.3310000000000004</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="3">
         <v>6.0830000000000002</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q25" s="3">
         <v>5.8319999999999999</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R25" s="3">
         <v>11.504</v>
       </c>
-      <c r="S25" s="8">
+      <c r="S25" s="3">
         <v>11.356999999999999</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T25" s="3">
         <v>22.436</v>
       </c>
     </row>
@@ -3362,1212 +3360,1212 @@
         <v>4.046532358709217</v>
       </c>
     </row>
-    <row r="27" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+    <row r="27" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="3">
         <v>125.7</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="3">
         <v>86.1</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="3">
         <v>67.7</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="3">
         <v>73.88</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28" s="3">
         <v>79.349999999999994</v>
       </c>
-      <c r="R28" s="8">
+      <c r="R28" s="3">
         <v>48.22</v>
       </c>
-      <c r="S28" s="8">
+      <c r="S28" s="3">
         <v>19.14</v>
       </c>
     </row>
-    <row r="29" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+    <row r="29" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="3">
         <v>53.95</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="3">
         <v>47.5</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="3">
         <v>48.1</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P29" s="3">
         <v>82.44</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="3">
         <v>70.917000000000002</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="3">
         <v>64.411000000000001</v>
       </c>
-      <c r="S29" s="8">
+      <c r="S29" s="3">
         <v>75.11</v>
       </c>
     </row>
-    <row r="30" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
+    <row r="30" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="3">
         <f>+C19+C15</f>
         <v>28.099999999999987</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="3">
         <f t="shared" ref="D31:J31" si="94">+D19+D15</f>
         <v>35.399999999999963</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="3">
         <f t="shared" si="94"/>
         <v>43.700000000000031</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="3">
         <f t="shared" si="94"/>
         <v>48.073000000000008</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="3">
         <f t="shared" si="94"/>
         <v>46.249999999999993</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="3">
         <f t="shared" si="94"/>
         <v>52.089999999999975</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="3">
         <f t="shared" si="94"/>
         <v>51.7</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="3">
         <f t="shared" si="94"/>
         <v>36.639999999999908</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="3">
         <f t="shared" ref="M31:T31" si="95">+M19+M15</f>
         <v>68.559999999999974</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="3">
         <f t="shared" si="95"/>
         <v>59.059999999999924</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31" s="3">
         <f t="shared" si="95"/>
         <v>54.950000000000031</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="3">
         <f t="shared" si="95"/>
         <v>90.96500000000006</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="Q31" s="3">
         <f t="shared" si="95"/>
         <v>67.69999999999996</v>
       </c>
-      <c r="R31" s="8">
+      <c r="R31" s="3">
         <f t="shared" si="95"/>
         <v>90.020000000000053</v>
       </c>
-      <c r="S31" s="8">
+      <c r="S31" s="3">
         <f t="shared" si="95"/>
         <v>155.27300000000014</v>
       </c>
-      <c r="T31" s="8">
+      <c r="T31" s="3">
         <f t="shared" si="95"/>
         <v>186.68</v>
       </c>
     </row>
-    <row r="32" spans="2:121" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="32" spans="2:121" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="6">
         <f>+C19/C11</f>
         <v>9.2069892473118212E-2</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="6">
         <f t="shared" ref="D34:J34" si="96">+D19/D11</f>
         <v>0.13081215127092355</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="6">
         <f t="shared" si="96"/>
         <v>0.16930638995084665</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="6">
         <f t="shared" si="96"/>
         <v>0.16114676776223222</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="6">
         <f t="shared" si="96"/>
         <v>0.14282460136674258</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="6">
         <f t="shared" si="96"/>
         <v>0.15429703972337006</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="6">
         <f t="shared" si="96"/>
         <v>0.14011478329705127</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="6">
         <f t="shared" si="96"/>
         <v>8.6444173225032242E-2</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="6">
         <f t="shared" ref="M34:AD34" si="97">+M19/M11</f>
         <v>8.6824121807936652E-2</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="6">
         <f t="shared" si="97"/>
         <v>4.6118299445471168E-2</v>
       </c>
-      <c r="O34" s="9">
+      <c r="O34" s="6">
         <f t="shared" si="97"/>
         <v>2.8894472361809122E-2</v>
       </c>
-      <c r="P34" s="9">
+      <c r="P34" s="6">
         <f t="shared" si="97"/>
         <v>7.7945823292796229E-2</v>
       </c>
-      <c r="Q34" s="9">
+      <c r="Q34" s="6">
         <f t="shared" si="97"/>
         <v>2.4504084014002264E-2</v>
       </c>
-      <c r="R34" s="9">
+      <c r="R34" s="6">
         <f t="shared" si="97"/>
         <v>6.9474116680361644E-2</v>
       </c>
-      <c r="S34" s="9">
+      <c r="S34" s="6">
         <f t="shared" si="97"/>
         <v>0.14180418399627806</v>
       </c>
-      <c r="T34" s="9">
+      <c r="T34" s="6">
         <f t="shared" si="97"/>
         <v>0.13082690886049214</v>
       </c>
-      <c r="U34" s="9">
+      <c r="U34" s="6">
         <f t="shared" si="97"/>
         <v>0.11000000000000007</v>
       </c>
-      <c r="V34" s="9">
+      <c r="V34" s="6">
         <f t="shared" si="97"/>
         <v>9.500000000000007E-2</v>
       </c>
-      <c r="W34" s="9">
+      <c r="W34" s="6">
         <f t="shared" si="97"/>
         <v>8.1999999999999962E-2</v>
       </c>
-      <c r="X34" s="9">
+      <c r="X34" s="6">
         <f t="shared" si="97"/>
         <v>6.2000000000000013E-2</v>
       </c>
-      <c r="Y34" s="9">
+      <c r="Y34" s="6">
         <f t="shared" si="97"/>
         <v>5.4000000000000124E-2</v>
       </c>
-      <c r="Z34" s="9">
+      <c r="Z34" s="6">
         <f t="shared" si="97"/>
         <v>4.8999999999999988E-2</v>
       </c>
-      <c r="AA34" s="9">
+      <c r="AA34" s="6">
         <f t="shared" si="97"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="AB34" s="9">
+      <c r="AB34" s="6">
         <f t="shared" si="97"/>
         <v>3.9999999999999938E-2</v>
       </c>
-      <c r="AC34" s="9">
+      <c r="AC34" s="6">
         <f t="shared" si="97"/>
         <v>4.1000000000000036E-2</v>
       </c>
-      <c r="AD34" s="9">
+      <c r="AD34" s="6">
         <f t="shared" si="97"/>
         <v>4.0999999999999884E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="35" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="6">
         <f>+G9/C9-1</f>
         <v>0.45151739452257589</v>
       </c>
-      <c r="H36" s="9">
-        <f t="shared" ref="H36:T36" si="98">+H9/D9-1</f>
+      <c r="H36" s="6">
+        <f t="shared" ref="H36:J36" si="98">+H9/D9-1</f>
         <v>0.39628099173553744</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="6">
         <f t="shared" si="98"/>
         <v>0.30186410102224892</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="6">
         <f t="shared" si="98"/>
         <v>4.5244614776036807E-2</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="6">
         <f>+N11/M11-1</f>
         <v>3.7765255964512745E-2</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O36" s="6">
         <f t="shared" ref="O36:T36" si="99">+O11/N11-1</f>
         <v>1.1552680221811551E-2</v>
       </c>
-      <c r="P36" s="9">
+      <c r="P36" s="6">
         <f t="shared" si="99"/>
         <v>0.21803334856098666</v>
       </c>
-      <c r="Q36" s="9">
+      <c r="Q36" s="6">
         <f t="shared" si="99"/>
         <v>-3.5733373339209118E-2</v>
       </c>
-      <c r="R36" s="9">
+      <c r="R36" s="6">
         <f t="shared" si="99"/>
         <v>-5.3286658887592431E-2</v>
       </c>
-      <c r="S36" s="9">
+      <c r="S36" s="6">
         <f t="shared" si="99"/>
         <v>0.4525944946589977</v>
       </c>
-      <c r="T36" s="9">
+      <c r="T36" s="6">
         <f t="shared" si="99"/>
         <v>0.3390881077266612</v>
       </c>
-      <c r="U36" s="9">
+      <c r="U36" s="6">
         <v>0.18</v>
       </c>
-      <c r="V36" s="9">
+      <c r="V36" s="6">
         <v>0.15</v>
       </c>
-      <c r="W36" s="9">
+      <c r="W36" s="6">
         <v>0.12</v>
       </c>
-      <c r="X36" s="9">
+      <c r="X36" s="6">
         <v>0.11</v>
       </c>
-      <c r="Y36" s="9">
+      <c r="Y36" s="6">
         <v>0.1</v>
       </c>
-      <c r="Z36" s="9">
+      <c r="Z36" s="6">
         <v>0.09</v>
       </c>
-      <c r="AA36" s="9">
+      <c r="AA36" s="6">
         <v>0.09</v>
       </c>
-      <c r="AB36" s="9">
+      <c r="AB36" s="6">
         <v>0.09</v>
       </c>
-      <c r="AC36" s="9">
+      <c r="AC36" s="6">
         <v>0.09</v>
       </c>
-      <c r="AD36" s="9">
+      <c r="AD36" s="6">
         <v>0.09</v>
       </c>
     </row>
-    <row r="37" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+    <row r="37" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="6">
         <f>+C12/C$11</f>
         <v>0.22446236559139787</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="6">
         <f t="shared" ref="D38:T38" si="100">+D12/D$11</f>
         <v>0.20954742715437075</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="6">
         <f t="shared" si="100"/>
         <v>0.19060622610595299</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="6">
         <f t="shared" si="100"/>
         <v>0.181841129752294</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="6">
         <f t="shared" si="100"/>
         <v>0.17904328018223234</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="6">
         <f t="shared" si="100"/>
         <v>0.18111663995951757</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="6">
         <f t="shared" si="100"/>
         <v>0.20146447654858499</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="6">
         <f t="shared" si="100"/>
         <v>0.20516813265434961</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="6">
         <f t="shared" si="100"/>
         <v>0.2540222994844743</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38" s="6">
         <f t="shared" si="100"/>
         <v>0.25924214417744917</v>
       </c>
-      <c r="O38" s="9">
+      <c r="O38" s="6">
         <f t="shared" si="100"/>
         <v>0.23343992690726359</v>
       </c>
-      <c r="P38" s="9">
+      <c r="P38" s="6">
         <f t="shared" si="100"/>
         <v>0.22465799664325697</v>
       </c>
-      <c r="Q38" s="9">
+      <c r="Q38" s="6">
         <f t="shared" si="100"/>
         <v>0.25223648385842079</v>
       </c>
-      <c r="R38" s="9">
+      <c r="R38" s="6">
         <f t="shared" si="100"/>
         <v>0.25493015612161052</v>
       </c>
-      <c r="S38" s="9">
+      <c r="S38" s="6">
         <f t="shared" si="100"/>
         <v>0.19939953869411686</v>
       </c>
-      <c r="T38" s="9">
+      <c r="T38" s="6">
         <f t="shared" si="100"/>
         <v>0.19210053859964094</v>
       </c>
-      <c r="U38" s="9">
+      <c r="U38" s="6">
         <v>0.2</v>
       </c>
-      <c r="V38" s="9">
+      <c r="V38" s="6">
         <v>0.21</v>
       </c>
-      <c r="W38" s="9">
+      <c r="W38" s="6">
         <v>0.22</v>
       </c>
-      <c r="X38" s="9">
+      <c r="X38" s="6">
         <v>0.23</v>
       </c>
-      <c r="Y38" s="9">
+      <c r="Y38" s="6">
         <v>0.24</v>
       </c>
-      <c r="Z38" s="9">
+      <c r="Z38" s="6">
         <v>0.24</v>
       </c>
-      <c r="AA38" s="9">
+      <c r="AA38" s="6">
         <v>0.24</v>
       </c>
-      <c r="AB38" s="9">
+      <c r="AB38" s="6">
         <v>0.24</v>
       </c>
-      <c r="AC38" s="9">
+      <c r="AC38" s="6">
         <v>0.24</v>
       </c>
-      <c r="AD38" s="9">
+      <c r="AD38" s="6">
         <v>0.24</v>
       </c>
     </row>
-    <row r="39" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="6">
         <f t="shared" ref="C39:T39" si="101">+C13/C$11</f>
         <v>0.15793010752688175</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="6">
         <f t="shared" si="101"/>
         <v>0.15561066336019841</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="6">
         <f t="shared" si="101"/>
         <v>0.14036045876570177</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="6">
         <f t="shared" si="101"/>
         <v>0.13042075887118257</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="6">
         <f t="shared" si="101"/>
         <v>0.14396355353075171</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="6">
         <f t="shared" si="101"/>
         <v>0.18343594501138566</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="6">
         <f t="shared" si="101"/>
         <v>0.19038195131604987</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="6">
         <f t="shared" si="101"/>
         <v>0.18012709902781873</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="6">
         <f t="shared" si="101"/>
         <v>0.21556168325140873</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39" s="6">
         <f t="shared" si="101"/>
         <v>0.19175138632162661</v>
       </c>
-      <c r="O39" s="9">
+      <c r="O39" s="6">
         <f t="shared" si="101"/>
         <v>0.18158976701690269</v>
       </c>
-      <c r="P39" s="9">
+      <c r="P39" s="6">
         <f t="shared" si="101"/>
         <v>0.17458814263344927</v>
       </c>
-      <c r="Q39" s="9">
+      <c r="Q39" s="6">
         <f t="shared" si="101"/>
         <v>0.19136522753792298</v>
       </c>
-      <c r="R39" s="9">
+      <c r="R39" s="6">
         <f t="shared" si="101"/>
         <v>0.17317173377156941</v>
       </c>
-      <c r="S39" s="9">
+      <c r="S39" s="6">
         <f t="shared" si="101"/>
         <v>0.14452931102509747</v>
       </c>
-      <c r="T39" s="9">
+      <c r="T39" s="6">
         <f t="shared" si="101"/>
         <v>0.17530890273524133</v>
       </c>
-      <c r="U39" s="9">
+      <c r="U39" s="6">
         <v>0.18</v>
       </c>
-      <c r="V39" s="9">
+      <c r="V39" s="6">
         <v>0.185</v>
       </c>
-      <c r="W39" s="9">
+      <c r="W39" s="6">
         <v>0.19</v>
       </c>
-      <c r="X39" s="9">
+      <c r="X39" s="6">
         <v>0.19</v>
       </c>
-      <c r="Y39" s="9">
+      <c r="Y39" s="6">
         <v>0.19</v>
       </c>
-      <c r="Z39" s="9">
+      <c r="Z39" s="6">
         <v>0.19500000000000001</v>
       </c>
-      <c r="AA39" s="9">
+      <c r="AA39" s="6">
         <v>0.19500000000000001</v>
       </c>
-      <c r="AB39" s="9">
+      <c r="AB39" s="6">
         <v>0.19500000000000001</v>
       </c>
-      <c r="AC39" s="9">
+      <c r="AC39" s="6">
         <v>0.19500000000000001</v>
       </c>
-      <c r="AD39" s="9">
+      <c r="AD39" s="6">
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="6">
         <f t="shared" ref="C40:T40" si="102">+C14/C$11</f>
         <v>0.38978494623655918</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="6">
         <f t="shared" si="102"/>
         <v>0.38251704897706146</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="6">
         <f t="shared" si="102"/>
         <v>0.39705079191698522</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="6">
         <f t="shared" si="102"/>
         <v>0.40481855620947721</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="6">
         <f t="shared" si="102"/>
         <v>0.41640091116173122</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="6">
         <f t="shared" si="102"/>
         <v>0.37361895926456939</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="6">
         <f t="shared" si="102"/>
         <v>0.37007718187215516</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="6">
         <f t="shared" si="102"/>
         <v>0.38495854551576131</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="6">
         <f t="shared" si="102"/>
         <v>0.32178395875794269</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="6">
         <f t="shared" si="102"/>
         <v>0.36575785582255083</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O40" s="6">
         <f t="shared" si="102"/>
         <v>0.39858382823206945</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P40" s="6">
         <f t="shared" si="102"/>
         <v>0.37786799936240634</v>
       </c>
-      <c r="Q40" s="9">
+      <c r="Q40" s="6">
         <f t="shared" si="102"/>
         <v>0.3274990276157137</v>
       </c>
-      <c r="R40" s="9">
+      <c r="R40" s="6">
         <f t="shared" si="102"/>
         <v>0.34096138044371405</v>
       </c>
-      <c r="S40" s="9">
+      <c r="S40" s="6">
         <f t="shared" si="102"/>
         <v>0.3945565340117631</v>
       </c>
-      <c r="T40" s="9">
+      <c r="T40" s="6">
         <f t="shared" si="102"/>
         <v>0.38543668814024717</v>
       </c>
-      <c r="U40" s="9">
+      <c r="U40" s="6">
         <v>0.38</v>
       </c>
-      <c r="V40" s="9">
+      <c r="V40" s="6">
         <v>0.38</v>
       </c>
-      <c r="W40" s="9">
+      <c r="W40" s="6">
         <v>0.38</v>
       </c>
-      <c r="X40" s="9">
+      <c r="X40" s="6">
         <v>0.39</v>
       </c>
-      <c r="Y40" s="9">
+      <c r="Y40" s="6">
         <v>0.39</v>
       </c>
-      <c r="Z40" s="9">
+      <c r="Z40" s="6">
         <v>0.39</v>
       </c>
-      <c r="AA40" s="9">
+      <c r="AA40" s="6">
         <v>0.4</v>
       </c>
-      <c r="AB40" s="9">
+      <c r="AB40" s="6">
         <v>0.4</v>
       </c>
-      <c r="AC40" s="9">
+      <c r="AC40" s="6">
         <v>0.4</v>
       </c>
-      <c r="AD40" s="9">
+      <c r="AD40" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="41" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="6">
         <f t="shared" ref="C41:T41" si="103">+C15/C$11</f>
         <v>9.6774193548387108E-2</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="6">
         <f t="shared" si="103"/>
         <v>8.8654680719156859E-2</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="6">
         <f t="shared" si="103"/>
         <v>6.9361004915346788E-2</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="6">
         <f t="shared" si="103"/>
         <v>6.3574276725737733E-2</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="6">
         <f t="shared" si="103"/>
         <v>6.7881548974943057E-2</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="6">
         <f t="shared" si="103"/>
         <v>6.5362233279919024E-2</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="6">
         <f t="shared" si="103"/>
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="6">
         <f t="shared" si="103"/>
         <v>6.7758090989436484E-2</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="6">
         <f t="shared" si="103"/>
         <v>7.756863685409425E-2</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N41" s="6">
         <f t="shared" si="103"/>
         <v>9.0341959334565625E-2</v>
       </c>
-      <c r="O41" s="9">
+      <c r="O41" s="6">
         <f t="shared" si="103"/>
         <v>9.6619460941068977E-2</v>
       </c>
-      <c r="P41" s="9">
+      <c r="P41" s="6">
         <f t="shared" si="103"/>
         <v>9.2638606295299616E-2</v>
       </c>
-      <c r="Q41" s="9">
+      <c r="Q41" s="6">
         <f t="shared" si="103"/>
         <v>0.1071567483469467</v>
       </c>
-      <c r="R41" s="9">
+      <c r="R41" s="6">
         <f t="shared" si="103"/>
         <v>0.11544782251437963</v>
       </c>
-      <c r="S41" s="9">
+      <c r="S41" s="6">
         <f t="shared" si="103"/>
         <v>7.7779961901960473E-2</v>
       </c>
-      <c r="T41" s="9">
+      <c r="T41" s="6">
         <f t="shared" si="103"/>
         <v>6.6321681275741895E-2</v>
       </c>
-      <c r="U41" s="9">
+      <c r="U41" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V41" s="9">
+      <c r="V41" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W41" s="9">
+      <c r="W41" s="6">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="X41" s="9">
+      <c r="X41" s="6">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="Y41" s="9">
+      <c r="Y41" s="6">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="Z41" s="9">
+      <c r="Z41" s="6">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="AA41" s="9">
+      <c r="AA41" s="6">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="AB41" s="9">
+      <c r="AB41" s="6">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="AC41" s="9">
+      <c r="AC41" s="6">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="AD41" s="9">
+      <c r="AD41" s="6">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="6">
         <f t="shared" ref="C42:T42" si="104">+C16/C$11</f>
         <v>2.1505376344086027E-2</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="6">
         <f t="shared" si="104"/>
         <v>1.9218846869187851E-2</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="6">
         <f t="shared" si="104"/>
         <v>1.8569087930092841E-2</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="6">
         <f t="shared" si="104"/>
         <v>4.2538670456192175E-2</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="6">
         <f t="shared" si="104"/>
         <v>3.143507972665148E-2</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="6">
         <f t="shared" si="104"/>
         <v>3.0783503415703801E-2</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="6">
         <f t="shared" si="104"/>
         <v>2.0383930338412824E-2</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="6">
         <f t="shared" si="104"/>
         <v>5.5342788603173279E-2</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="6">
         <f t="shared" si="104"/>
         <v>3.6686248651240864E-2</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42" s="6">
         <f t="shared" si="104"/>
         <v>3.8354898336414048E-2</v>
       </c>
-      <c r="O42" s="9">
+      <c r="O42" s="6">
         <f t="shared" si="104"/>
         <v>3.9972590223846506E-2</v>
       </c>
-      <c r="P42" s="9">
+      <c r="P42" s="6">
         <f t="shared" si="104"/>
         <v>3.2254737414557762E-2</v>
       </c>
-      <c r="Q42" s="9">
+      <c r="Q42" s="6">
         <f t="shared" si="104"/>
         <v>6.9233761182419293E-2</v>
       </c>
-      <c r="R42" s="9">
+      <c r="R42" s="6">
         <f t="shared" si="104"/>
         <v>1.8282662284305671E-2</v>
       </c>
-      <c r="S42" s="9">
+      <c r="S42" s="6">
         <f t="shared" si="104"/>
         <v>2.6586605159215581E-2</v>
       </c>
-      <c r="T42" s="9">
+      <c r="T42" s="6">
         <f t="shared" si="104"/>
         <v>3.4322526137923755E-2</v>
       </c>
-      <c r="U42" s="9">
+      <c r="U42" s="6">
         <v>0.04</v>
       </c>
-      <c r="V42" s="9">
+      <c r="V42" s="6">
         <v>0.04</v>
       </c>
-      <c r="W42" s="9">
+      <c r="W42" s="6">
         <v>3.9E-2</v>
       </c>
-      <c r="X42" s="9">
+      <c r="X42" s="6">
         <v>3.9E-2</v>
       </c>
-      <c r="Y42" s="9">
+      <c r="Y42" s="6">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="Z42" s="9">
+      <c r="Z42" s="6">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AA42" s="9">
+      <c r="AA42" s="6">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AB42" s="9">
+      <c r="AB42" s="6">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AC42" s="9">
+      <c r="AC42" s="6">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AD42" s="9">
+      <c r="AD42" s="6">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="6">
         <f t="shared" ref="C43:T43" si="105">+C17/C$11</f>
         <v>1.8145161290322585E-2</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="6">
         <f t="shared" si="105"/>
         <v>1.735895846249225E-2</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="6">
         <f t="shared" si="105"/>
         <v>1.638448935008192E-2</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="6">
         <f t="shared" si="105"/>
         <v>1.7763400849838493E-2</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="6">
         <f t="shared" si="105"/>
         <v>1.9134396355353075E-2</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="6">
         <f t="shared" si="105"/>
         <v>1.6445981276882852E-2</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="6">
         <f t="shared" si="105"/>
         <v>1.8207005739164849E-2</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="6">
         <f t="shared" si="105"/>
         <v>2.2726316232481808E-2</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M43" s="6">
         <f t="shared" si="105"/>
         <v>2.1340366862486516E-2</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N43" s="6">
         <f t="shared" si="105"/>
         <v>1.9292975970425136E-2</v>
       </c>
-      <c r="O43" s="9">
+      <c r="O43" s="6">
         <f t="shared" si="105"/>
         <v>2.1128369118318866E-2</v>
       </c>
-      <c r="P43" s="9">
+      <c r="P43" s="6">
         <f t="shared" si="105"/>
         <v>2.2484552418636488E-2</v>
       </c>
-      <c r="Q43" s="9">
+      <c r="Q43" s="6">
         <f t="shared" si="105"/>
         <v>2.6837806301050173E-2</v>
       </c>
-      <c r="R43" s="9">
+      <c r="R43" s="6">
         <f t="shared" si="105"/>
         <v>2.6910435497124074E-2</v>
       </c>
-      <c r="S43" s="9">
+      <c r="S43" s="6">
         <f t="shared" si="105"/>
         <v>1.7394427843529344E-2</v>
       </c>
-      <c r="T43" s="9">
+      <c r="T43" s="6">
         <f t="shared" si="105"/>
         <v>1.9115006864505228E-2</v>
       </c>
-      <c r="U43" s="9">
+      <c r="U43" s="6">
         <v>0.02</v>
       </c>
-      <c r="V43" s="9">
+      <c r="V43" s="6">
         <v>0.02</v>
       </c>
-      <c r="W43" s="9">
+      <c r="W43" s="6">
         <v>0.02</v>
       </c>
-      <c r="X43" s="9">
+      <c r="X43" s="6">
         <v>0.02</v>
       </c>
-      <c r="Y43" s="9">
+      <c r="Y43" s="6">
         <v>0.02</v>
       </c>
-      <c r="Z43" s="9">
+      <c r="Z43" s="6">
         <v>0.02</v>
       </c>
-      <c r="AA43" s="9">
+      <c r="AA43" s="6">
         <v>0.02</v>
       </c>
-      <c r="AB43" s="9">
+      <c r="AB43" s="6">
         <v>0.02</v>
       </c>
-      <c r="AC43" s="9">
+      <c r="AC43" s="6">
         <v>0.02</v>
       </c>
-      <c r="AD43" s="9">
+      <c r="AD43" s="6">
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="6">
         <f t="shared" ref="C44:T44" si="106">+C18/C$11</f>
         <v>-6.7204301075268833E-4</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="6">
         <f t="shared" si="106"/>
         <v>-3.7197768133911966E-3</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="6">
         <f t="shared" si="106"/>
         <v>-1.638448935008192E-3</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="6">
         <f t="shared" si="106"/>
         <v>-2.1035606269545577E-3</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="6">
         <f t="shared" si="106"/>
         <v>-6.8337129840546689E-4</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="6">
         <f t="shared" si="106"/>
         <v>-5.06030193134857E-3</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="6">
         <f t="shared" si="106"/>
         <v>-5.1454581436770237E-3</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="6">
         <f t="shared" si="106"/>
         <v>-2.5251462480535333E-3</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="6">
         <f t="shared" si="106"/>
         <v>-1.3787315669583983E-2</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="6">
         <f t="shared" si="106"/>
         <v>-1.0859519408502773E-2</v>
       </c>
-      <c r="O44" s="9">
+      <c r="O44" s="6">
         <f t="shared" si="106"/>
         <v>-2.2841480127912289E-4</v>
       </c>
-      <c r="P44" s="9">
+      <c r="P44" s="6">
         <f t="shared" si="106"/>
         <v>-2.4378580604026219E-3</v>
       </c>
-      <c r="Q44" s="9">
+      <c r="Q44" s="6">
         <f t="shared" si="106"/>
         <v>1.1668611435239206E-3</v>
       </c>
-      <c r="R44" s="9">
+      <c r="R44" s="6">
         <f t="shared" si="106"/>
         <v>8.2169268693508635E-4</v>
       </c>
-      <c r="S44" s="9">
+      <c r="S44" s="6">
         <f t="shared" si="106"/>
         <v>-2.0505626319607759E-3</v>
       </c>
-      <c r="T44" s="9">
+      <c r="T44" s="6">
         <f t="shared" si="106"/>
         <v>-3.4322526137923752E-3</v>
       </c>
-      <c r="U44" s="9">
+      <c r="U44" s="6">
         <v>0</v>
       </c>
-      <c r="V44" s="9">
+      <c r="V44" s="6">
         <v>0</v>
       </c>
-      <c r="W44" s="9">
+      <c r="W44" s="6">
         <v>0</v>
       </c>
-      <c r="X44" s="9">
+      <c r="X44" s="6">
         <v>0</v>
       </c>
-      <c r="Y44" s="9">
+      <c r="Y44" s="6">
         <v>0</v>
       </c>
-      <c r="Z44" s="9">
+      <c r="Z44" s="6">
         <v>0</v>
       </c>
-      <c r="AA44" s="9">
+      <c r="AA44" s="6">
         <v>0</v>
       </c>
-      <c r="AB44" s="9">
+      <c r="AB44" s="6">
         <v>0</v>
       </c>
-      <c r="AC44" s="9">
+      <c r="AC44" s="6">
         <v>0</v>
       </c>
-      <c r="AD44" s="9">
+      <c r="AD44" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+    <row r="45" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="6">
         <f>+C23/C22</f>
         <v>0.25621118012422378</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="6">
         <f t="shared" ref="D46:T46" si="107">+D23/D22</f>
         <v>0.2680952380952385</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="6">
         <f t="shared" si="107"/>
         <v>0.26080988332189403</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="6">
         <f t="shared" si="107"/>
         <v>0.23774166047905829</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="6">
         <f t="shared" si="107"/>
         <v>0.24405705229793984</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="6">
         <f t="shared" si="107"/>
         <v>0.23982328810350284</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="6">
         <f t="shared" si="107"/>
         <v>0.22531645569620248</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="6">
         <f t="shared" si="107"/>
         <v>0.24343026608452181</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M46" s="6">
         <f t="shared" si="107"/>
         <v>0.38670867946147253</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N46" s="6">
         <f t="shared" si="107"/>
         <v>0.37346024636058395</v>
       </c>
-      <c r="O46" s="9">
+      <c r="O46" s="6">
         <f t="shared" si="107"/>
         <v>-1.6623287671232836</v>
       </c>
-      <c r="P46" s="9">
+      <c r="P46" s="6">
         <f t="shared" si="107"/>
         <v>0.23433763749402156</v>
       </c>
-      <c r="Q46" s="9">
+      <c r="Q46" s="6">
         <f t="shared" si="107"/>
         <v>0.21734835012843381</v>
       </c>
-      <c r="R46" s="9">
+      <c r="R46" s="6">
         <f t="shared" si="107"/>
         <v>0.24013722126929624</v>
       </c>
-      <c r="S46" s="9">
+      <c r="S46" s="6">
         <f t="shared" si="107"/>
         <v>0.25340389657222467</v>
       </c>
-      <c r="T46" s="9">
+      <c r="T46" s="6">
         <f t="shared" si="107"/>
         <v>0.23783139407982001</v>
       </c>
-      <c r="U46" s="9">
+      <c r="U46" s="6">
         <v>0.24</v>
       </c>
-      <c r="V46" s="9">
+      <c r="V46" s="6">
         <v>0.24</v>
       </c>
-      <c r="W46" s="9">
+      <c r="W46" s="6">
         <v>0.25</v>
       </c>
-      <c r="X46" s="9">
+      <c r="X46" s="6">
         <v>0.25</v>
       </c>
-      <c r="Y46" s="9">
+      <c r="Y46" s="6">
         <v>0.26</v>
       </c>
-      <c r="Z46" s="9">
+      <c r="Z46" s="6">
         <v>0.26</v>
       </c>
-      <c r="AA46" s="9">
+      <c r="AA46" s="6">
         <v>0.27</v>
       </c>
-      <c r="AB46" s="9">
+      <c r="AB46" s="6">
         <v>0.27</v>
       </c>
-      <c r="AC46" s="9">
+      <c r="AC46" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AD46" s="9">
+      <c r="AD46" s="6">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N47" s="6">
         <f>+N21/M7</f>
         <v>2.7231467473524965E-2</v>
       </c>
-      <c r="O47" s="9">
-        <f t="shared" ref="O47:T47" si="108">+O21/N7</f>
+      <c r="O47" s="6">
+        <f t="shared" ref="O47:P47" si="108">+O21/N7</f>
         <v>3.4983853606027987E-2</v>
       </c>
-      <c r="P47" s="9">
+      <c r="P47" s="6">
         <f t="shared" si="108"/>
         <v>3.7487151581111315E-2</v>
       </c>
-      <c r="Q47" s="9">
+      <c r="Q47" s="6">
         <f>+Q21/P7</f>
         <v>4.0774624123579913E-2</v>
       </c>
-      <c r="R47" s="9">
+      <c r="R47" s="6">
         <f>+R21/Q7</f>
         <v>3.8498556304138599E-2</v>
       </c>
-      <c r="S47" s="9">
+      <c r="S47" s="6">
         <f>+S21/R7</f>
         <v>2.6319945254513869E-2</v>
       </c>
-      <c r="T47" s="9">
+      <c r="T47" s="6">
         <f>+T21/S7</f>
         <v>3.8167204119940325E-2</v>
       </c>
-      <c r="U47" s="9">
+      <c r="U47" s="6">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="V47" s="9">
+      <c r="V47" s="6">
         <v>5.5E-2</v>
       </c>
-      <c r="W47" s="9">
+      <c r="W47" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="X47" s="9">
+      <c r="X47" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="Y47" s="9">
+      <c r="Y47" s="6">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="Z47" s="9">
+      <c r="Z47" s="6">
         <v>3.9E-2</v>
       </c>
-      <c r="AA47" s="9">
+      <c r="AA47" s="6">
         <v>3.9E-2</v>
       </c>
-      <c r="AB47" s="9">
+      <c r="AB47" s="6">
         <v>3.9E-2</v>
       </c>
-      <c r="AC47" s="9">
+      <c r="AC47" s="6">
         <v>3.9E-2</v>
       </c>
-      <c r="AD47" s="9">
+      <c r="AD47" s="6">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="23:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="23:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
@@ -4577,55 +4575,55 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
     </row>
-    <row r="50" spans="23:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="23:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="23:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="23:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="23:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="23:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="23:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="23:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="23:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="23:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="23:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="23:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="23:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="23:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="23:30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="23:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="23:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="23:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="23:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="23:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="23:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="23:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="23:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="23:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="23:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="23:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="23:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="23:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="23:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="23:30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="99" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="100" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="101" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
